--- a/evidence.xlsx
+++ b/evidence.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adir.rahamim/Downloads/Technion/pythonProject/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D218E19-D7B0-0A47-A8D6-965CB5DE48BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="גיליון1" sheetId="1" r:id="rId4"/>
+    <sheet name="גיליון1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -28,78 +37,86 @@
     <t>Type 1 diabetes mellitus (T1DM), also known as autoimmune diabetes, is a chronic disease characterized by insulin deficiency due to pancreatic β-cell loss and leads to hyperglycaemia. Although the age of symptomatic onset is usually during childhood or adolescence, symptoms can sometimes develop much later. Although the aetiology of T1DM is not completely understood, the pathogenesis of the disease is thought to involve T cell-mediated destruction of β-cells. Islet-targeting autoantibodies that target insulin, 65 kDa glutamic acid decarboxylase, insulinoma-associated protein 2 and zinc transporter 8 - all of which are proteins associated with secretory granules in β-cells - are biomarkers of T1DM-associated autoimmunity that are found months to years before symptom onset, and can be used to identify and study individuals who are at risk of developing T1DM. The type of autoantibody that appears first depends on the environmental trigger and on genetic factors. The pathogenesis of T1DM can be divided into three stages depending on the absence or presence of hyperglycaemia and hyperglycaemia-associated symptoms (such as polyuria and thirst). A cure is not available, and patients depend on lifelong insulin injections; novel approaches to insulin treatment, such as insulin pumps, continuous glucose monitoring and hybrid closed-loop systems, are in development. Although intensive glycaemic control has reduced the incidence of microvascular and macrovascular complications, the majority of patients with T1DM are still developing these complications. Major research efforts are needed to achieve early diagnosis, prevent β-cell loss and develop better treatment options to improve the quality of life and prognosis of those affected.</t>
   </si>
   <si>
-    <t>Type 1 diabetes mellitus</t>
-  </si>
-  <si>
     <t>Immunotherapy</t>
   </si>
   <si>
     <t>Type 1 diabetes mellitus (T1DM) is an autoimmune disease affecting 3 million individuals in the U.S. The pathogenesis of T1DM is driven by immune-mediated destruction of pancreatic β cells, the source of glucose regulator insulin. While T1DM can be successfully managed with insulin replacement therapy, approaches that can modify the underlying immuno-pathology of β cell destruction has been long sought after. Immunotherapy can attenuate T cell responses against β cell antigens. Given the detailed cellular and molecular definitions of T1DM immune responses, rational immunomodulation can be and have been developed in mouse models, and in some instances, tested in humans. The possibility of identifying individuals who are predisposed to T1DM through genotyping lend to the possibility of preventive vaccines. While much has been accomplished in delineating the mechanisms of immunotherapies, some of which are being tested in humans, long-term preservation of β cells and insulin independency has not been achieved. In this regard, the drug delivery field has much to offer in maximizing the benefits of immune modulators by optimizing spatiotemporal presentation of antigens and costimulatory signals. In this review, we attempt to capture the current state of T1DM immunotherapy by highlighting representative studies.</t>
   </si>
   <si>
-    <t>Advances in immunotherapy of type I diabetes</t>
-  </si>
-  <si>
     <t>Diagnosis</t>
   </si>
   <si>
     <t>Currently, there are three markers that are being studied with the potential to give a high positive predictive value for the development of type I diabetes (insulin-dependent diabetes caused by autoimmune beta-cell destruction) and that can be utilized to predict the disease in susceptible relatives: 1) high-titer cytoplasmic islet cell antibodies, 2) insulin autoantibodies detected with fluid-phase radiobinding assays, and 3) first-phase insulin release after intravenous glucose less than 1st percentile. With the combination of these assays, it seems to be possible to identify first-degree relatives with a high probability of developing type I diabetes within a limited time span (i.e., less than 10 yr). The ability to predict type I diabetes with selected assays will allow trials for prevention of diabetes and trials to assess whether prediction will decrease morbidity and mortality at onset of diabetes.</t>
   </si>
   <si>
-    <t>Predicting type I diabetes</t>
-  </si>
-  <si>
     <t>Misdiagnosis</t>
   </si>
   <si>
     <t>Type I diabetes is probably due to the immune-mediated destruction of islet insulin-secreting beta-cells. This chronic destructive process is associated with both cellular and humoral immune changes in the peripheral blood that can be detected months, even years, before the onset of clinical diabetes. Throughout this prediabetic period, metabolic changes, including altered glucose tolerance and reduced insulin secretion, deteriorate at variable rates toward full-blown diabetes. The ability to predict subsequent clinical diabetes in those nondiabetic individuals with immune and metabolic changes has led to attempts to prevent the disease onset by therapeutic intervention. A small fraction of individuals with immune changes develop clinical diabetes that does not require insulin treatment. The onset of diabetes in these cases is usually in adult life, and because their diabetes is, at least initially, not insulin-dependent, they appear clinically to have type II diabetes. Such patients probably have the same disease process as patients with type I diabetes in that they have similar human leukocyte antigen (HLA) genetic susceptibility as well as autoantibodies to islet antigens. It is proposed that non-insulin-dependent diabetic patients who have markers that characterize individuals at risk of type I diabetes may be suitable candidates for those same therapeutic strategies that seek to prevent progression to insulin-dependence or even to reestablish normal glucose tolerance.</t>
   </si>
   <si>
-    <t>Type I diabetes masquerading as type II diabetes. Possible implications for prevention and treatment</t>
-  </si>
-  <si>
     <t>Excercise support</t>
   </si>
   <si>
     <t>Exercise training improves some markers of type 1 diabetes severity; particularly body mass, BMI, Peak VO2 and LDL in adults and insulin dose, waist circumference, LDL and triglycerides in children.</t>
   </si>
   <si>
-    <t>Clinical outcomes to exercise training in type 1 diabetes: A systematic review and meta-analysis</t>
+    <t>https://pubmed.ncbi.nlm.nih.gov/29223408/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/7821148/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/2201499/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/30528629/</t>
+  </si>
+  <si>
+    <t>https://pubmed.ncbi.nlm.nih.gov/28358037/#:~:text=Type%201%20diabetes%20mellitus%20(T1DM,can%20sometimes%20develop%20much%20later.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF212121"/>
       <name val="&quot;system-ui&quot;"/>
     </font>
     <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF212121"/>
       <name val="&quot;system-ui&quot;"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -107,7 +124,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -117,48 +134,45 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -348,96 +362,101 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:3" ht="16">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16">
+      <c r="A4" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="C4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16">
+      <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>16</v>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="7"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1">
+      <c r="B7" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" location=":~:text=Type%201%20diabetes%20mellitus%20(T1DM,can%20sometimes%20develop%20much%20later." ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
-    <hyperlink r:id="rId4" ref="C5"/>
-    <hyperlink r:id="rId5" ref="C6"/>
+    <hyperlink ref="C2" r:id="rId1" location=":~:text=Type%201%20diabetes%20mellitus%20(T1DM,can%20sometimes%20develop%20much%20later." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
   </hyperlinks>
-  <drawing r:id="rId6"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>